--- a/ExcelData.xlsx
+++ b/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VMSBI\Downloads\Assignment_FirstCry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54A10BA-3F36-45D3-908F-3B7A8455957C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3449F7-78EB-40F2-9F3D-EE5C1C89B5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{158C59D8-4451-4283-A930-5882BAC5E1C2}"/>
   </bookViews>
@@ -135,7 +135,7 @@
     <t>https://www.firstcry.com/mamaearth-baby/mamaearth-gentle-cleansing-shampoo-for-babies-400-ml/1859580/product-detail?ref2=fbt_details_fc</t>
   </si>
   <si>
-    <t>ValidPincodeDelhi</t>
+    <t>ValidPincodeRural</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +678,7 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>506002</v>
+        <v>500084</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -686,7 +686,7 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>110001</v>
+        <v>506330</v>
       </c>
     </row>
   </sheetData>
@@ -698,6 +698,7 @@
     <hyperlink ref="B16" r:id="rId5" xr:uid="{8242CF22-C8C0-4E8C-AE4D-B87783D3460B}"/>
     <hyperlink ref="B17" r:id="rId6" xr:uid="{DEA71F30-AC73-4779-A945-6F198B92F22C}"/>
     <hyperlink ref="B14" r:id="rId7" xr:uid="{AA376BBA-2F1D-419C-8035-3300AD151399}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{6A45443D-EF36-480B-A775-E3CA16CB29BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelData.xlsx
+++ b/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VMSBI\Downloads\Assignment_FirstCry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3449F7-78EB-40F2-9F3D-EE5C1C89B5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D22CFB2-6359-4607-A91C-177490785E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{158C59D8-4451-4283-A930-5882BAC5E1C2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Chrome</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t>ValidPincodeRural</t>
+  </si>
+  <si>
+    <t>ValidSearchKey2</t>
+  </si>
+  <si>
+    <t>baby toys</t>
+  </si>
+  <si>
+    <t>ValidSearchKey3</t>
+  </si>
+  <si>
+    <t>tops</t>
+  </si>
+  <si>
+    <t>stretch jeans</t>
+  </si>
+  <si>
+    <t>ValidSearchKey4</t>
   </si>
 </sst>
 </file>
@@ -525,15 +543,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9635E147-3A73-436A-8484-03579D5EA2BB}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,144 +579,168 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>99999</v>
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>500084</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>500084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
+      <c r="B22">
         <v>506330</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4B332104-4DC5-42ED-B877-0B21D4C88D35}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{7907892E-4990-43AD-9818-B608A1CEF0DF}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{857B4C3A-D88E-4034-934A-6A277B71B18C}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{F6665638-E300-4363-BF96-71C70BFC66AE}"/>
-    <hyperlink ref="B16" r:id="rId5" xr:uid="{8242CF22-C8C0-4E8C-AE4D-B87783D3460B}"/>
-    <hyperlink ref="B17" r:id="rId6" xr:uid="{DEA71F30-AC73-4779-A945-6F198B92F22C}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{AA376BBA-2F1D-419C-8035-3300AD151399}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{6A45443D-EF36-480B-A775-E3CA16CB29BC}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{7907892E-4990-43AD-9818-B608A1CEF0DF}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{857B4C3A-D88E-4034-934A-6A277B71B18C}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{F6665638-E300-4363-BF96-71C70BFC66AE}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{8242CF22-C8C0-4E8C-AE4D-B87783D3460B}"/>
+    <hyperlink ref="B20" r:id="rId6" xr:uid="{DEA71F30-AC73-4779-A945-6F198B92F22C}"/>
+    <hyperlink ref="B17" r:id="rId7" xr:uid="{AA376BBA-2F1D-419C-8035-3300AD151399}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{6A45443D-EF36-480B-A775-E3CA16CB29BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelData.xlsx
+++ b/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VMSBI\Downloads\Assignment_FirstCry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D22CFB2-6359-4607-A91C-177490785E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89600B2-86BA-48C6-9A7F-E988B8384E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{158C59D8-4451-4283-A930-5882BAC5E1C2}"/>
   </bookViews>
